--- a/data/SEM_Stein_data/means.xlsx
+++ b/data/SEM_Stein_data/means.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmoge\GitHub\MinimalCell\data\SEM_Stein_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E174435C-A0EC-4045-829A-3C889CF3108E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B241D1C9-3040-4E1E-834D-6FF0C8A44C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23055" yWindow="3720" windowWidth="16005" windowHeight="10920" xr2:uid="{9A715783-2F89-44A5-B205-DAF0CD6224A0}"/>
+    <workbookView xWindow="13770" yWindow="1845" windowWidth="22410" windowHeight="12930" xr2:uid="{9A715783-2F89-44A5-B205-DAF0CD6224A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>WT</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Average diam</t>
+  </si>
+  <si>
+    <t>Increase in cell size difference that occurred during evolution</t>
+  </si>
+  <si>
+    <t>Increase in cell size difference due to ftsZ mutation</t>
+  </si>
+  <si>
+    <t>Proportion of the evolved differences that could potentially be attributed to ftsZ mutation</t>
   </si>
 </sst>
 </file>
@@ -409,15 +418,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C792476-0765-4244-8247-6D3E342587DD}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -428,7 +440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -439,7 +451,7 @@
         <v>0.43929030000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -450,7 +462,7 @@
         <v>0.79223160000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -461,7 +473,7 @@
         <v>0.54984480000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -472,7 +484,7 @@
         <v>0.30490669999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -483,7 +495,7 @@
         <v>0.37524659999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -494,22 +506,31 @@
         <v>0.2465</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>C3-C6-(C2-C5)</f>
         <v>0.2826014</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>C4-C7-(C2-C5)</f>
         <v>0.16896119999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>C10/C9</f>
         <v>0.59787814214650026</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/SEM_Stein_data/means.xlsx
+++ b/data/SEM_Stein_data/means.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmoge\GitHub\MinimalCell\data\SEM_Stein_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B241D1C9-3040-4E1E-834D-6FF0C8A44C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E174435C-A0EC-4045-829A-3C889CF3108E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13770" yWindow="1845" windowWidth="22410" windowHeight="12930" xr2:uid="{9A715783-2F89-44A5-B205-DAF0CD6224A0}"/>
+    <workbookView xWindow="23055" yWindow="3720" windowWidth="16005" windowHeight="10920" xr2:uid="{9A715783-2F89-44A5-B205-DAF0CD6224A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>WT</t>
   </si>
@@ -58,15 +58,6 @@
   </si>
   <si>
     <t>Average diam</t>
-  </si>
-  <si>
-    <t>Increase in cell size difference that occurred during evolution</t>
-  </si>
-  <si>
-    <t>Increase in cell size difference due to ftsZ mutation</t>
-  </si>
-  <si>
-    <t>Proportion of the evolved differences that could potentially be attributed to ftsZ mutation</t>
   </si>
 </sst>
 </file>
@@ -418,18 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C792476-0765-4244-8247-6D3E342587DD}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -440,7 +428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -451,7 +439,7 @@
         <v>0.43929030000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -462,7 +450,7 @@
         <v>0.79223160000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -473,7 +461,7 @@
         <v>0.54984480000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -484,7 +472,7 @@
         <v>0.30490669999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -495,7 +483,7 @@
         <v>0.37524659999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -506,31 +494,22 @@
         <v>0.2465</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>C3-C6-(C2-C5)</f>
         <v>0.2826014</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>C4-C7-(C2-C5)</f>
         <v>0.16896119999999998</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>C10/C9</f>
         <v>0.59787814214650026</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
